--- a/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -48,13 +48,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.240</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.240</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -78,7 +78,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -207,7 +207,7 @@
     <t>DIP320</t>
   </si>
   <si>
-    <t>DU/DIU Ostéopathe université médecine reconnu CNOM</t>
+    <t>DU ou DIU Ostéopathe université médecine reconnu CNOM</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire</t>

--- a/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -26,12 +26,17 @@
     <sheet name="Include from TRE_R58-AutreTyp 8" r:id="rId20" sheetId="18"/>
     <sheet name="Include from TRE_R54-DiplomeU 7" r:id="rId21" sheetId="19"/>
     <sheet name="Include from TRE_R56-Attestat 3" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from TRE_R54-DiplomeU 8" r:id="rId23" sheetId="21"/>
+    <sheet name="Include from TRE_R58-AutreTyp 9" r:id="rId24" sheetId="22"/>
+    <sheet name="Include from TRE_R54-DiplomeU 9" r:id="rId25" sheetId="23"/>
+    <sheet name="Include from TRE_R58-AutreTyp 1" r:id="rId26" sheetId="24"/>
+    <sheet name="Include from TRE_R54-DiplomeU 1" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +59,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -78,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +95,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -132,52 +143,16 @@
     <t>DE Ergothérapeute</t>
   </si>
   <si>
-    <t>DE31</t>
-  </si>
-  <si>
-    <t>DE Diététicien</t>
-  </si>
-  <si>
     <t>DE32</t>
   </si>
   <si>
     <t>DE Psychomotricien</t>
   </si>
   <si>
-    <t>DE33</t>
-  </si>
-  <si>
-    <t>DE Orthoprothésiste</t>
-  </si>
-  <si>
-    <t>DE34</t>
-  </si>
-  <si>
-    <t>DE Podo-Orthésiste</t>
-  </si>
-  <si>
-    <t>DE35</t>
-  </si>
-  <si>
-    <t>DE Orthopédiste-Orthésiste</t>
-  </si>
-  <si>
-    <t>DE36</t>
-  </si>
-  <si>
-    <t>DE Oculariste</t>
-  </si>
-  <si>
-    <t>DE37</t>
-  </si>
-  <si>
-    <t>DE Epithésiste</t>
-  </si>
-  <si>
     <t>DE38</t>
   </si>
   <si>
-    <t>DE Technicien Laboratoire Médical (DETLM ou DETAB)</t>
+    <t>DE Technicien de Laboratoire Médical (DETLM, DETAB ou DELAM)</t>
   </si>
   <si>
     <t>DE39</t>
@@ -186,9 +161,6 @@
     <t>DE Manipulateur d'Electro-Radiologie médicale</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -228,31 +200,31 @@
     <t>DIP323</t>
   </si>
   <si>
-    <t>Master mention psychologie</t>
+    <t>Licence + Master mention psychologie + Attest stage</t>
   </si>
   <si>
     <t>DIP324</t>
   </si>
   <si>
-    <t>Master mention psychologie clinique, psychopathologie et psychologie de la santé</t>
+    <t>Licence + Master mention clinique, psychopatho et psycho santé + Attest stage</t>
   </si>
   <si>
     <t>DIP325</t>
   </si>
   <si>
-    <t>Master mention psychologie sociale, du travail et des organisations</t>
+    <t>Licence + Master mention sociale, du travail et des organisations + Attest stage</t>
   </si>
   <si>
     <t>DIP326</t>
   </si>
   <si>
-    <t>Master mention psychologie de l'éducation et de la formation</t>
+    <t>Licence + Master mention éducation et de la formation + Attest stage</t>
   </si>
   <si>
     <t>DIP327</t>
   </si>
   <si>
-    <t>Master mention psychopathologie clinique psychanalytique</t>
+    <t>Licence + Master mention psychopatho clinique psychanalytique + Attest stage</t>
   </si>
   <si>
     <t>DIP328</t>
@@ -390,19 +362,13 @@
     <t>DIP350</t>
   </si>
   <si>
-    <t>BTS Analyses de biologie médicale</t>
+    <t>BTS de technicien de laboratoire listé dans l'arrêté du 21/10/1992</t>
   </si>
   <si>
     <t>DIP351</t>
   </si>
   <si>
-    <t>DUT Génie biologique option analyses biologiques et biochimiques</t>
-  </si>
-  <si>
-    <t>DIP352</t>
-  </si>
-  <si>
-    <t>Diplôme de Technicien de Laboratoire arrêté du 21/10/92 sauf DETLM/DETAB,DUT,BTS</t>
+    <t>DUT Génie biologique option analyses biologiques et biochimiques (avant 2023)</t>
   </si>
   <si>
     <t>DIP353</t>
@@ -456,7 +422,7 @@
     <t>DIP361</t>
   </si>
   <si>
-    <t>Licence psychologie + Master psychologie + Stage psychologie</t>
+    <t>Licence + Master psychologie + Attest stage</t>
   </si>
   <si>
     <t>DIP362</t>
@@ -480,10 +446,16 @@
     <t>BT ou BTS de Diététique</t>
   </si>
   <si>
+    <t>DIP409</t>
+  </si>
+  <si>
+    <t>Diplôme de Qualification en Physique Radiologique et Médicale INSTN (dès 1996)</t>
+  </si>
+  <si>
     <t>DIP365</t>
   </si>
   <si>
-    <t>DUT Biologie option diététique</t>
+    <t>DUT Génie biologique option diététique (avant 2023)</t>
   </si>
   <si>
     <t>DIP366</t>
@@ -507,13 +479,55 @@
     <t>DIP369</t>
   </si>
   <si>
-    <t>BUT Biologie option diététique</t>
+    <t>BUT Génie biologique parcours diététique et nutrition</t>
   </si>
   <si>
     <t>DIP370</t>
   </si>
   <si>
     <t>Attestation de connaissances de MER</t>
+  </si>
+  <si>
+    <t>DIP410</t>
+  </si>
+  <si>
+    <t>DUT Biologie appliquée option analyses biologiques et biochimiques</t>
+  </si>
+  <si>
+    <t>DIP411</t>
+  </si>
+  <si>
+    <t>BUT Génie biologique parcours biologie médicale et biotechnologie</t>
+  </si>
+  <si>
+    <t>DIP412</t>
+  </si>
+  <si>
+    <t>Diplôme de premier cycle technique biochimie-biologie CNAM</t>
+  </si>
+  <si>
+    <t>DIP413</t>
+  </si>
+  <si>
+    <t>DU Analyses des milieux biologiques université de Corte</t>
+  </si>
+  <si>
+    <t>DIP414</t>
+  </si>
+  <si>
+    <t>Diplôme de technicienne de laboratoire de biochimie-biologie clinique ESTBB Lyon</t>
+  </si>
+  <si>
+    <t>DIP415</t>
+  </si>
+  <si>
+    <t>Certificat de formation tech supérieur Physicien chimiste ministère travail</t>
+  </si>
+  <si>
+    <t>DIP416</t>
+  </si>
+  <si>
+    <t>DUT Biologie appliquée option diététique</t>
   </si>
 </sst>
 </file>
@@ -647,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -753,20 +767,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -788,42 +810,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -845,50 +867,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>119</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -910,34 +932,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,114 +981,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>127</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1088,34 +1102,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1137,34 +1151,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1186,34 +1208,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1235,34 +1257,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1284,42 +1306,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1341,34 +1363,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1390,66 +1412,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1460,60 +1482,727 @@
         <v>42</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1527,42 +2216,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1576,488 +2265,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>56</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -26,17 +26,12 @@
     <sheet name="Include from TRE_R58-AutreTyp 8" r:id="rId20" sheetId="18"/>
     <sheet name="Include from TRE_R54-DiplomeU 7" r:id="rId21" sheetId="19"/>
     <sheet name="Include from TRE_R56-Attestat 3" r:id="rId22" sheetId="20"/>
-    <sheet name="Include from TRE_R54-DiplomeU 8" r:id="rId23" sheetId="21"/>
-    <sheet name="Include from TRE_R58-AutreTyp 9" r:id="rId24" sheetId="22"/>
-    <sheet name="Include from TRE_R54-DiplomeU 9" r:id="rId25" sheetId="23"/>
-    <sheet name="Include from TRE_R58-AutreTyp 1" r:id="rId26" sheetId="24"/>
-    <sheet name="Include from TRE_R54-DiplomeU 1" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +54,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -83,7 +78,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -95,72 +90,105 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Diplômes pour l'application EPARS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>DE28</t>
+  </si>
+  <si>
+    <t>DE Assistant de Service Social</t>
+  </si>
+  <si>
+    <t>DE29</t>
+  </si>
+  <si>
+    <t>DE Audioprothésiste</t>
+  </si>
+  <si>
+    <t>DE30</t>
+  </si>
+  <si>
+    <t>DE Ergothérapeute</t>
+  </si>
+  <si>
+    <t>DE31</t>
+  </si>
+  <si>
+    <t>DE Diététicien</t>
+  </si>
+  <si>
+    <t>DE32</t>
+  </si>
+  <si>
+    <t>DE Psychomotricien</t>
+  </si>
+  <si>
+    <t>DE33</t>
+  </si>
+  <si>
+    <t>DE Orthoprothésiste</t>
+  </si>
+  <si>
+    <t>DE34</t>
+  </si>
+  <si>
+    <t>DE Podo-Orthésiste</t>
+  </si>
+  <si>
+    <t>DE35</t>
+  </si>
+  <si>
+    <t>DE Orthopédiste-Orthésiste</t>
+  </si>
+  <si>
+    <t>DE36</t>
+  </si>
+  <si>
+    <t>DE Oculariste</t>
+  </si>
+  <si>
+    <t>DE37</t>
+  </si>
+  <si>
+    <t>DE Epithésiste</t>
+  </si>
+  <si>
+    <t>DE38</t>
+  </si>
+  <si>
+    <t>DE Technicien Laboratoire Médical (DETLM ou DETAB)</t>
+  </si>
+  <si>
+    <t>DE39</t>
+  </si>
+  <si>
+    <t>DE Manipulateur d'Electro-Radiologie médicale</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Diplômes pour l'application EPARS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>DE28</t>
-  </si>
-  <si>
-    <t>DE Assistant de Service Social</t>
-  </si>
-  <si>
-    <t>DE29</t>
-  </si>
-  <si>
-    <t>DE Audioprothésiste</t>
-  </si>
-  <si>
-    <t>DE30</t>
-  </si>
-  <si>
-    <t>DE Ergothérapeute</t>
-  </si>
-  <si>
-    <t>DE32</t>
-  </si>
-  <si>
-    <t>DE Psychomotricien</t>
-  </si>
-  <si>
-    <t>DE38</t>
-  </si>
-  <si>
-    <t>DE Technicien de Laboratoire Médical (DETLM, DETAB ou DELAM)</t>
-  </si>
-  <si>
-    <t>DE39</t>
-  </si>
-  <si>
-    <t>DE Manipulateur d'Electro-Radiologie médicale</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -200,31 +228,31 @@
     <t>DIP323</t>
   </si>
   <si>
-    <t>Licence + Master mention psychologie + Attest stage</t>
+    <t>Master mention psychologie</t>
   </si>
   <si>
     <t>DIP324</t>
   </si>
   <si>
-    <t>Licence + Master mention clinique, psychopatho et psycho santé + Attest stage</t>
+    <t>Master mention psychologie clinique, psychopathologie et psychologie de la santé</t>
   </si>
   <si>
     <t>DIP325</t>
   </si>
   <si>
-    <t>Licence + Master mention sociale, du travail et des organisations + Attest stage</t>
+    <t>Master mention psychologie sociale, du travail et des organisations</t>
   </si>
   <si>
     <t>DIP326</t>
   </si>
   <si>
-    <t>Licence + Master mention éducation et de la formation + Attest stage</t>
+    <t>Master mention psychologie de l'éducation et de la formation</t>
   </si>
   <si>
     <t>DIP327</t>
   </si>
   <si>
-    <t>Licence + Master mention psychopatho clinique psychanalytique + Attest stage</t>
+    <t>Master mention psychopathologie clinique psychanalytique</t>
   </si>
   <si>
     <t>DIP328</t>
@@ -362,13 +390,19 @@
     <t>DIP350</t>
   </si>
   <si>
-    <t>BTS de technicien de laboratoire listé dans l'arrêté du 21/10/1992</t>
+    <t>BTS Analyses de biologie médicale</t>
   </si>
   <si>
     <t>DIP351</t>
   </si>
   <si>
-    <t>DUT Génie biologique option analyses biologiques et biochimiques (avant 2023)</t>
+    <t>DUT Génie biologique option analyses biologiques et biochimiques</t>
+  </si>
+  <si>
+    <t>DIP352</t>
+  </si>
+  <si>
+    <t>Diplôme de Technicien de Laboratoire arrêté du 21/10/92 sauf DETLM/DETAB,DUT,BTS</t>
   </si>
   <si>
     <t>DIP353</t>
@@ -422,7 +456,7 @@
     <t>DIP361</t>
   </si>
   <si>
-    <t>Licence + Master psychologie + Attest stage</t>
+    <t>Licence psychologie + Master psychologie + Stage psychologie</t>
   </si>
   <si>
     <t>DIP362</t>
@@ -446,16 +480,10 @@
     <t>BT ou BTS de Diététique</t>
   </si>
   <si>
-    <t>DIP409</t>
-  </si>
-  <si>
-    <t>Diplôme de Qualification en Physique Radiologique et Médicale INSTN (dès 1996)</t>
-  </si>
-  <si>
     <t>DIP365</t>
   </si>
   <si>
-    <t>DUT Génie biologique option diététique (avant 2023)</t>
+    <t>DUT Biologie option diététique</t>
   </si>
   <si>
     <t>DIP366</t>
@@ -479,55 +507,13 @@
     <t>DIP369</t>
   </si>
   <si>
-    <t>BUT Génie biologique parcours diététique et nutrition</t>
+    <t>BUT Biologie option diététique</t>
   </si>
   <si>
     <t>DIP370</t>
   </si>
   <si>
     <t>Attestation de connaissances de MER</t>
-  </si>
-  <si>
-    <t>DIP410</t>
-  </si>
-  <si>
-    <t>DUT Biologie appliquée option analyses biologiques et biochimiques</t>
-  </si>
-  <si>
-    <t>DIP411</t>
-  </si>
-  <si>
-    <t>BUT Génie biologique parcours biologie médicale et biotechnologie</t>
-  </si>
-  <si>
-    <t>DIP412</t>
-  </si>
-  <si>
-    <t>Diplôme de premier cycle technique biochimie-biologie CNAM</t>
-  </si>
-  <si>
-    <t>DIP413</t>
-  </si>
-  <si>
-    <t>DU Analyses des milieux biologiques université de Corte</t>
-  </si>
-  <si>
-    <t>DIP414</t>
-  </si>
-  <si>
-    <t>Diplôme de technicienne de laboratoire de biochimie-biologie clinique ESTBB Lyon</t>
-  </si>
-  <si>
-    <t>DIP415</t>
-  </si>
-  <si>
-    <t>Certificat de formation tech supérieur Physicien chimiste ministère travail</t>
-  </si>
-  <si>
-    <t>DIP416</t>
-  </si>
-  <si>
-    <t>DUT Biologie appliquée option diététique</t>
   </si>
 </sst>
 </file>
@@ -661,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -767,28 +753,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -810,42 +788,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -867,50 +845,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -932,34 +910,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +947,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,106 +959,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1102,34 +1088,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,42 +1137,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>137</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1208,34 +1186,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1257,34 +1235,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1306,42 +1284,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1363,34 +1341,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1412,66 +1390,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1480,6 +1458,54 @@
       </c>
       <c r="B9" t="s" s="2">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1501,295 +1527,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1811,34 +1576,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1860,34 +1625,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1909,98 +1674,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2022,34 +1787,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2071,130 +1836,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2216,34 +1981,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2265,34 +2030,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J183-Diplome-EPARS.xlsx
@@ -59,7 +59,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
